--- a/biology/Botanique/René_Pechère/René_Pechère.xlsx
+++ b/biology/Botanique/René_Pechère/René_Pechère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Pech%C3%A8re</t>
+          <t>René_Pechère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Pechère est un paysagiste belge (Ixelles, 12 février 1908 - 9 mai 2002).
 Il est l'auteur de plus de 900 jardins privés et publics en Belgique, en France, en Allemagne et aux Pays-Bas.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Pech%C3%A8re</t>
+          <t>René_Pechère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pechère participe dès 1935 à la création des jardins de l'Exposition universelle de Bruxelles sous la direction de Jules Buyssens, responsable des parcs et jardins de la ville de Bruxelles.
 Il s'engage, en 1952, auprès du gouvernement belge comme conseiller pour le Ministère des Transports et se lance, dans la foulée, comme architecte indépendant.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Pech%C3%A8re</t>
+          <t>René_Pechère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,16 @@
           <t>Inconscient collectif et patrimoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pechère est visible partout, particulièrement à Bruxelles. On lui doit, outre les réalisations citées ci-après, et entre autres, la réalisation des aménagements extérieurs pour le site de la RTB-BRT (Radio Télévision belge francophone et flamande) boulevard Reyers, le parc communal du Tomberg à Woluwe, le parc Ter Coigne à Watermael-Boitsfort et les aménagements des rampes d'accès à l'aéroport de Zaventem.
 Pechère est également présent sur bon nombre de chantiers architectoniques à Bruxelles pendant les années 1960 et 1970, au même titre que l'architecte d'intérieur Stéphane Jasinski, avec lequel il collabore sporadiquement. Il signe, notamment, les jardins en terrasse du Crédit communal, boulevard Pachéco, et une composition exceptionnelle, aujourd'hui disparue, pour la Société Nationale du Crédit à l'Industrie, sise Boulevard de Waterloo ; Pechère constitue, en plein boulevard, une évocation de buis en pierre bleue afin de remplacer les plantes et le gazon, devenus misérables.
 À l'image de son "jardin" boulevard de Waterloo, son style est géométrique et empreint de rigorisme classique. Pechère utilise les végétaux (if, buis, platane, yucas) comme éléments architecturaux et tient compte dans ses agencements des combinaisons de couleurs, de l'ensoleillement et des ombres portées.
-D'allure presque austère, le style Pechère trouve sa plus belle expression dans le jardin en terrasse de la Cité administrative de l'État dont une partie a été détruite le 10 février 2021 et le lendemain : 397 arbres à haute tige ont été abattus (224 platanes dans la zone du jardin organique pourtant protégé par l’inventaire du patrimoine naturel et 173 autres arbres situés dans la zone des futures constructions). Cet abattage massif fut autorisé par un permis de la Région de Bruxelles-Capitale dans le cadre du projet « RAC4 » malgré un recours introduit contre ce permis auprès du Conseil d ’État… qui l’a annulé dans son ensemble[2].
+D'allure presque austère, le style Pechère trouve sa plus belle expression dans le jardin en terrasse de la Cité administrative de l'État dont une partie a été détruite le 10 février 2021 et le lendemain : 397 arbres à haute tige ont été abattus (224 platanes dans la zone du jardin organique pourtant protégé par l’inventaire du patrimoine naturel et 173 autres arbres situés dans la zone des futures constructions). Cet abattage massif fut autorisé par un permis de la Région de Bruxelles-Capitale dans le cadre du projet « RAC4 » malgré un recours introduit contre ce permis auprès du Conseil d ’État… qui l’a annulé dans son ensemble.
 On lui doit, également à Bruxelles, les parcs du Botanique et du Mont des Arts, les jardins du musée Van Buuren, du Berlaymont et de la Maison d'Érasme.
-Passionné par l'art des jardins, René Pechère rassemble une importante collection de livres anciens et contemporains sur ce thème, mais aussi touchant à des sujets très divers, comme les cités-jardins, l’urbanisme ou les jardins historiques. En 1988 il en confie la gestion à la Région de Bruxelles-Capitale. Entièrement numérisée, la Bibliothèque René Pechère (BRP) [3] est installée à Bruxelles au Centre international pour la Ville, l’Architecture et le Paysage.
+Passionné par l'art des jardins, René Pechère rassemble une importante collection de livres anciens et contemporains sur ce thème, mais aussi touchant à des sujets très divers, comme les cités-jardins, l’urbanisme ou les jardins historiques. En 1988 il en confie la gestion à la Région de Bruxelles-Capitale. Entièrement numérisée, la Bibliothèque René Pechère (BRP)  est installée à Bruxelles au Centre international pour la Ville, l’Architecture et le Paysage.
 Pechère est l'auteur d'un livre de référence (Grammaire des Jardins, 1987).
 Ses principaux collaborateurs furent : Berry Jacquemotte, Annie van Marcke de Lummen et Marianne Foerster, ainsi que deux architectes de jardin de renom: M. Paul Deroose, et M. Jacques Boulanger-Français (pour les jardins des quatre saisons à l'exposition universelle de 1958 à Bruxelles). Pour des projets plus intimistes, il travailla souvent en collaboration avec des architectes de bâtiment de qualité dont le comte Serge d'Ursel (1923-1995) Atelier d'Architecture Horizon. Pechère fit quelques avant-projets relatifs à des dossiers d'un autre architecte, le baron Francis Bonaert (1914-2012).
 Formé par Jules Buyssens dans sa jeunesse, il forma lui même ensuite plusieurs architectes de jardin de renom au sein de son atelier dont : Jean-Noël Cappart, Eric le Hardÿ de Beaulieu et Emmanuel d'Hennezel.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Pech%C3%A8re</t>
+          <t>René_Pechère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Écrits de René Pechère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Petits jardins d'aujourd'hui. Deuxième Série, Paris, Éditions d'Art Chrales Moreau, s.d. [ca 1955], viii p., 48 pl. ; 4°
 Les glorieux jardins d'Enghien au XVIIIe siècle », dans La Maison d'Hier et d'Aujourd'hui, 23 p.
